--- a/Satakhira_DIV_I/FY_23_24/Khal/Khal Data Pol-15/Satkhira all Data/Sora_9_ Input_ Output/Sora_9_Khal_Combimed_input.xlsx
+++ b/Satakhira_DIV_I/FY_23_24/Khal/Khal Data Pol-15/Satkhira all Data/Sora_9_ Input_ Output/Sora_9_Khal_Combimed_input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19980" windowHeight="7665" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19980" windowHeight="7665" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Combined" sheetId="20" r:id="rId1"/>
@@ -740,7 +740,7 @@
     <t>Ditch</t>
   </si>
   <si>
-    <t>X</t>
+    <t>Xsection</t>
   </si>
 </sst>
 </file>
@@ -17096,9 +17096,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M791"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40059,7 +40059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
